--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11763_Titled_HC.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11763_Titled_HC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\HC1_Height1(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B0954-19D5-49C4-BB81-0D2867DF1896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A973F33-C6BA-46DE-A9CA-304F8AE1E07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15560" xr2:uid="{A96A2AE6-C4D1-4A7C-8150-B09459C761C2}"/>
+    <workbookView xWindow="8480" yWindow="1740" windowWidth="23000" windowHeight="17540" xr2:uid="{A96A2AE6-C4D1-4A7C-8150-B09459C761C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
   <si>
     <r>
       <t xml:space="preserve">SmartLookup Double </t>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Test BaseRatebenefitDurationAttainedAgeRate3 BaseRatebenefitDurationAttainedAgeRate3Test</t>
+  </si>
+  <si>
+    <t>/Elimination Period</t>
   </si>
 </sst>
 </file>
@@ -609,17 +612,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,7 +627,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCCD2B9-C9B1-4098-A821-61A6FB553389}">
   <dimension ref="D6:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -979,10 +982,10 @@
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1021,16 +1024,16 @@
       </c>
     </row>
     <row r="8" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="3">
         <v>6.4000000000000003E-3</v>
       </c>
@@ -1072,12 +1075,12 @@
       </c>
     </row>
     <row r="9" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
@@ -1119,12 +1122,12 @@
       </c>
     </row>
     <row r="10" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="3">
         <v>6.4000000000000003E-3</v>
       </c>
@@ -1166,12 +1169,12 @@
       </c>
     </row>
     <row r="11" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="3">
         <v>6.4999999999999997E-3</v>
       </c>
@@ -1213,12 +1216,12 @@
       </c>
     </row>
     <row r="12" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="3">
         <v>8.2000000000000007E-3</v>
       </c>
@@ -1254,12 +1257,12 @@
       </c>
     </row>
     <row r="13" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="3">
         <v>9.7000000000000003E-3</v>
       </c>
@@ -1295,12 +1298,12 @@
       </c>
     </row>
     <row r="14" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="3">
         <v>1.41E-2</v>
       </c>
@@ -1336,12 +1339,12 @@
       </c>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="3">
         <v>1.78E-2</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>46</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>4</v>
@@ -1555,10 +1558,10 @@
       </c>
     </row>
     <row r="43" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -1600,8 +1603,8 @@
       </c>
     </row>
     <row r="44" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="17" t="s">
         <v>18</v>
       </c>
@@ -1641,8 +1644,8 @@
       </c>
     </row>
     <row r="45" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="17" t="s">
         <v>19</v>
       </c>
@@ -1682,8 +1685,8 @@
       </c>
     </row>
     <row r="46" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="17" t="s">
         <v>20</v>
       </c>
@@ -1723,8 +1726,8 @@
       </c>
     </row>
     <row r="47" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="17" t="s">
         <v>21</v>
       </c>
@@ -1764,8 +1767,8 @@
       </c>
     </row>
     <row r="48" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="17" t="s">
         <v>22</v>
       </c>
@@ -1805,8 +1808,8 @@
       </c>
     </row>
     <row r="49" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="17" t="s">
         <v>23</v>
       </c>
@@ -1846,8 +1849,8 @@
       </c>
     </row>
     <row r="50" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="17" t="s">
         <v>24</v>
       </c>
@@ -1912,10 +1915,10 @@
       <c r="E61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="21"/>
       <c r="H61" s="13" t="s">
         <v>4</v>
       </c>
@@ -1951,16 +1954,16 @@
       </c>
     </row>
     <row r="62" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="26"/>
+      <c r="G62" s="25"/>
       <c r="H62" s="3">
         <v>6.4000000000000003E-3</v>
       </c>
@@ -1996,12 +1999,12 @@
       </c>
     </row>
     <row r="63" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="24"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
@@ -2037,12 +2040,12 @@
       </c>
     </row>
     <row r="64" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="24"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="3">
         <v>6.4000000000000003E-3</v>
       </c>
@@ -2078,12 +2081,12 @@
       </c>
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="24"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="3">
         <v>6.4999999999999997E-3</v>
       </c>
@@ -2119,12 +2122,12 @@
       </c>
     </row>
     <row r="66" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="24"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="3">
         <v>8.2000000000000007E-3</v>
       </c>
@@ -2160,12 +2163,12 @@
       </c>
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D67" s="21"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="24"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="3">
         <v>9.7000000000000003E-3</v>
       </c>
@@ -2201,12 +2204,12 @@
       </c>
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D68" s="21"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="24"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="3">
         <v>1.41E-2</v>
       </c>
@@ -2242,12 +2245,12 @@
       </c>
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G69" s="24"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="3">
         <v>1.78E-2</v>
       </c>
@@ -2452,18 +2455,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D60:R60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
     <mergeCell ref="D41:R41"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="E43:E50"/>
@@ -2479,6 +2470,18 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D60:R60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
